--- a/resources/alunos.xlsx
+++ b/resources/alunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\building_game\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1636F6DF-ECCE-4C43-BA88-402734BEC013}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD7B2B4-A498-49DD-995E-A5DE7C962614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A758DC9-2C1E-43A0-BEE4-419CD54AA3B5}"/>
   </bookViews>
@@ -2841,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6839F392-6B97-4842-B994-9F89ECCECDE9}">
   <dimension ref="A1:E283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,7 +4007,7 @@
         <v>213</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>221</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4075,7 +4075,7 @@
         <v>223</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4109,7 +4109,7 @@
         <v>229</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
